--- a/project/uploads/70/19/REVIEW_ReviewResult_testfileupload_19.xlsx
+++ b/project/uploads/70/19/REVIEW_ReviewResult_testfileupload_19.xlsx
@@ -832,7 +832,7 @@
   <dimension ref="A1:L80"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="2" max="2" width="64.375" customWidth="1"/>
+    <col min="2" max="2" width="64.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">

--- a/project/uploads/70/19/REVIEW_ReviewResult_testfileupload_19.xlsx
+++ b/project/uploads/70/19/REVIEW_ReviewResult_testfileupload_19.xlsx
@@ -5,13 +5,14 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Sheet2" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="114">
   <si>
     <t>NO.</t>
   </si>
@@ -350,6 +351,9 @@
   </si>
   <si>
     <t>拉延模设计导柱时，存放状态导柱导套吃入量控制在30-50mm（客户有特殊要求的，按客户要求执行），防止开模困难；</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
 </sst>
 </file>
@@ -505,6 +509,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -832,7 +885,7 @@
   <dimension ref="A1:L80"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="2" max="2" width="64.125" customWidth="1"/>
+    <col min="2" max="2" width="63.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2504,4 +2557,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/project/uploads/70/19/REVIEW_ReviewResult_testfileupload_19.xlsx
+++ b/project/uploads/70/19/REVIEW_ReviewResult_testfileupload_19.xlsx
@@ -515,15 +515,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -541,6 +541,99 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -885,7 +978,7 @@
   <dimension ref="A1:L80"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="2" max="2" width="63.625" customWidth="1"/>
+    <col min="2" max="2" width="61.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2556,6 +2649,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/project/uploads/70/19/REVIEW_ReviewResult_testfileupload_19.xlsx
+++ b/project/uploads/70/19/REVIEW_ReviewResult_testfileupload_19.xlsx
@@ -570,9 +570,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -610,13 +610,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -978,7 +978,7 @@
   <dimension ref="A1:L80"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="2" max="2" width="61.625" customWidth="1"/>
+    <col min="2" max="2" width="61.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
